--- a/com/python/code/create_table/example.xlsx
+++ b/com/python/code/create_table/example.xlsx
@@ -663,7 +663,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
